--- a/daten_weather_com.xlsx
+++ b/daten_weather_com.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Projects\expWinfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A6AD5C-8808-406C-9AA9-5BC9E3BC5DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED6987B-5B3C-49F6-ACA2-8AF1E60CDBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{696F073C-A334-480C-9A80-4343163528B8}"/>
+    <workbookView xWindow="37230" yWindow="-2400" windowWidth="21645" windowHeight="15285" activeTab="2" xr2:uid="{696F073C-A334-480C-9A80-4343163528B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Stuttgart" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="29">
   <si>
     <t xml:space="preserve">Min Temperatur </t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>Min Temperatur</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Tageszeit</t>
   </si>
 </sst>
 </file>
@@ -1445,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE5A1D6-905F-4BC7-B4B0-419ED7E600CF}">
   <dimension ref="A2:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,6 +1465,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +3703,7 @@
   <dimension ref="A2:H92"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3703,6 +3715,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -5933,8 +5951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB2B2A1-FCE0-4CCA-8F72-99B88F12431A}">
   <dimension ref="A2:H92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5946,6 +5964,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
